--- a/data/0120dailyreport.xlsx
+++ b/data/0120dailyreport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2800" windowWidth="24220" windowHeight="14520"/>
+    <workbookView xWindow="9360" yWindow="14060" windowWidth="24220" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="299">
   <si>
     <t>order_date</t>
   </si>
@@ -382,13 +382,7 @@
   </si>
   <si>
     <t>创建订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户未接单被系统取消</t>
-  </si>
-  <si>
-    <t>商户拒单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>商户确认订单后，运力接单前__取消订单</t>
@@ -545,59 +539,59 @@
   </si>
   <si>
     <t>abn1‘1-2-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3-2-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3-1-2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3-1-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn1‘1-2-3*100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>created</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>payed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn1-ydnorm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>bookord</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn2-chaoshi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn1-ydnorm*100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1支付成功订单量</t>
@@ -607,49 +601,49 @@
   </si>
   <si>
     <t>abn1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消运单异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn1-ydnorm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn2-chaoshi</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消运单正常</t>
   </si>
   <si>
     <t>创建订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>支付订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>预定单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2017-01-18</t>
   </si>
   <si>
     <t>总异常订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
@@ -662,97 +656,97 @@
   </si>
   <si>
     <t>订单取消_运单正常*100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_运单异常</t>
   </si>
   <si>
     <t>订单取消_运单异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单正常_运单异常</t>
   </si>
   <si>
     <t>订单正常_运单异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单正常_运单超时</t>
   </si>
   <si>
     <t>订单正常_运单超时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_无运单</t>
   </si>
   <si>
     <t>订单取消_无运单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>支付成功率/10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_运单正常</t>
   </si>
   <si>
     <t>订单取消_运单正常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>运单接单前T 之内商户取消*100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>运单接单前T 之内商户取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abn3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_无运单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单正常_运单异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单正常_运单超时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_运单异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>订单取消_运单正常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总异常率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总异常订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abnormal</t>
   </si>
   <si>
     <t>abnormal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2017-01-19</t>
@@ -940,146 +934,166 @@
   <si>
     <t xml:space="preserve">【创建订单量】【创建订单量】今日订单量 5251786 单，占支付订单量5251786%，比前一天下降264250个百分点，低于30天内均值1750825.9333个百分点（2.1倍标准差）。30天内均值为 7002611.9333%，标准差为 852235.415%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【支付订单量】【1支付成功订单量】今日订单量 4896820 单，占支付订单量93.241%，比前一天下降0.0499个百分点，高于30天内均值0.9226个百分点（1倍标准差）。30天内均值为 92.3184%，标准差为 0.9134%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【预定单】【2预定单】今日订单量 148445 单，占支付订单量3.0315%，比前一天增加0.045个百分点，高于30天内均值0.0974个百分点（0.3倍标准差）。30天内均值为 2.9341%，标准差为 0.3658%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>abnormal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>总异常订单量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>respb_scene</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【总异常订单量】【3总异常订单】今日订单量 654741 单，占支付订单量13.3707%，比前一天增加0.9377个百分点，高于30天内均值4.4558个百分点（3.1倍标准差）。30天内均值为 8.9149%，标准差为 1.4545%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单正常运单超时】【_汇总】今日订单量 254787 单，占支付订单量5.2031%，比前一天增加0.2312个百分点，高于30天内均值1.8496个百分点（3倍标准差）。30天内均值为 3.3535%，标准差为 0.6178%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单正常运单异常】【_汇总】今日订单量 104447 单，占支付订单量2.133%，比前一天下降0.0503个百分点，高于30天内均值0.7911个百分点（2.3倍标准差）。30天内均值为 1.3419%，标准差为 0.3451%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消无运单】【_汇总】今日订单量 236766 单，占支付订单量4.8351%，比前一天增加0.6603个百分点，高于30天内均值1.2522个百分点（3.1倍标准差）。30天内均值为 3.5829%，标准差为 0.408%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【_汇总】今日订单量 56825 单，占支付订单量1.1604%，比前一天增加0.0644个百分点，高于30天内均值0.5298个百分点（2.8倍标准差）。30天内均值为 0.6307%，标准差为 0.187%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单正常】【_汇总】今日订单量 1916 单，占支付订单量0.0391%，比前一天增加0.0321个百分点，高于30天内均值0.0331个百分点（5.2倍标准差）。30天内均值为 0.006%，标准差为 0.0064%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【商户确认订单后，运力接单前__T 之内取消】今日订单量 10791 单，占支付订单量0.2204%，比前一天增加0.0185个百分点，高于30天内均值0.107个百分点（2.8倍标准差）。30天内均值为 0.1133%，标准差为 0.0376%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【商户确认订单后，运力接单前__T 之内商户取消】今日订单量 953 单，占支付订单量0.0195%，比前一天增加0.0027个百分点，高于30天内均值0.0092个百分点（3.4倍标准差）。30天内均值为 0.0103%，标准差为 0.0027%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【商户确认订单后，运力接单前__自配送超时用户取消】今日订单量 1665 单，占支付订单量0.034%，比前一天下降0.0041个百分点，高于30天内均值0.0201个百分点（2.7倍标准差）。30天内均值为 0.0139%，标准差为 0.0076%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【商户确认订单后，运力接单前__运单被退回商户选择取消订单（专送）】今日订单量 2862 单，占支付订单量0.0584%，比前一天增加0.0114个百分点，高于30天内均值0.0324个百分点（3.6倍标准差）。30天内均值为 0.026%，标准差为 0.009%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【商户确认订单后，运力接单前__运单被退回商户选择取消订单（快送）】今日订单量 116 单，占支付订单量0.0024%，比前一天增加0.0012个百分点，高于30天内均值0.0017个百分点（3.7倍标准差）。30天内均值为 0.0006%，标准差为 0.0005%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【运力接单后，取餐前__商户取消订单】今日订单量 6023 单，占支付订单量0.123%，比前一天增加0.0063个百分点，高于30天内均值0.0439个百分点（2.7倍标准差）。30天内均值为 0.0791%，标准差为 0.0163%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【运力接单后，取餐前__骑手或配送商原因】今日订单量 2006 单，占支付订单量0.041%，比前一天增加0.0047个百分点，高于30天内均值0.0239个百分点（3.1倍标准差）。30天内均值为 0.0171%，标准差为 0.0078%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【取餐后__专送超时未送达导致订单取消（T之外)】今日订单量 2857 单，占支付订单量0.0583%，比前一天增加0.0005个百分点，高于30天内均值0.0316个百分点（3倍标准差）。30天内均值为 0.0267%，标准差为 0.0105%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单异常】【取餐后__骑手标记配送异常（配送商、骑手原因）】今日订单量 293 单，占支付订单量0.006%，比前一天增加0.0013个百分点，高于30天内均值0.0031个百分点（3倍标准差）。30天内均值为 0.0029%，标准差为 0.001%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消运单正常】【运力接单后，取餐前__用户取消】今日订单量 751 单，占支付订单量0.0153%，比前一天增加0.0139个百分点，高于30天内均值0.0137个百分点（5.3倍标准差）。30天内均值为 0.0016%，标准差为 0.0026%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单正常运单超时】【取餐后__专送超时】今日订单量 143793 单，占支付订单量2.9365%，比前一天增加0.0621个百分点，高于30天内均值1.0829个百分点（3倍标准差）。30天内均值为 1.8535%，标准差为 0.3553%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单正常运单超时】【取餐后__其他标品超时】今日订单量 98284 单，占支付订单量2.0071%，比前一天增加0.1266个百分点，高于30天内均值0.7566个百分点（2.6倍标准差）。30天内均值为 1.2505%，标准差为 0.2869%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单正常运单异常】【运力接单后，取餐前__非商户原因取消运单】今日订单量 3737 单，占支付订单量0.0763%，比前一天增加0.0064个百分点，高于30天内均值0.0307个百分点（2.7倍标准差）。30天内均值为 0.0456%，标准差为 0.0113%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消无运单】【商户确认订单前__商户未接单被系统取消】今日订单量 118558 单，占支付订单量2.4211%，比前一天增加0.4636个百分点，高于30天内均值0.7342个百分点（2.9倍标准差）。30天内均值为 1.6869%，标准差为 0.2501%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">【订单取消无运单】【商户确认订单前__商户拒单】今日订单量 31537 单，占支付订单量0.644%，比前一天增加0.085个百分点，高于30天内均值0.2503个百分点（3.1倍标准差）。30天内均值为 0.3937%，标准差为 0.0816%
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户未接单被系统取消</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户拒单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户确认订单后，运力接单前__取消订单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,7 +1166,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,6 +1185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1183,32 +1203,32 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1220,50 +1240,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1275,8 +1289,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2115,8 +2137,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-971526880"/>
-        <c:axId val="-971529200"/>
+        <c:axId val="317500480"/>
+        <c:axId val="317619504"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4200,11 +4222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-971535424"/>
-        <c:axId val="-971533104"/>
+        <c:axId val="317384368"/>
+        <c:axId val="317615872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-971535424"/>
+        <c:axId val="317384368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4247,7 +4269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-971533104"/>
+        <c:crossAx val="317615872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4255,7 +4277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-971533104"/>
+        <c:axId val="317615872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,12 +4419,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-971535424"/>
+        <c:crossAx val="317384368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-971529200"/>
+        <c:axId val="317619504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4439,12 +4461,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-971526880"/>
+        <c:crossAx val="317500480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-971526880"/>
+        <c:axId val="317500480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4454,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-971529200"/>
+        <c:crossAx val="317619504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4989,8 +5011,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-971756384"/>
-        <c:axId val="-971758704"/>
+        <c:axId val="390290016"/>
+        <c:axId val="390287696"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6385,11 +6407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-968076464"/>
-        <c:axId val="-968074688"/>
+        <c:axId val="390281984"/>
+        <c:axId val="390284304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-968076464"/>
+        <c:axId val="390281984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,7 +6454,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-968074688"/>
+        <c:crossAx val="390284304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6440,7 +6462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-968074688"/>
+        <c:axId val="390284304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,12 +6569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-968076464"/>
+        <c:crossAx val="390281984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-971758704"/>
+        <c:axId val="390287696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,12 +6611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-971756384"/>
+        <c:crossAx val="390290016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-971756384"/>
+        <c:axId val="390290016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,7 +6626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-971758704"/>
+        <c:crossAx val="390287696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7462,7 +7484,7 @@
                   <c:v>565786.3125726721</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>531137.7097397647</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>539543.4863063413</c:v>
@@ -7471,7 +7493,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.0</c:v>
+                  <c:v>653171.376855022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7485,8 +7507,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1032521552"/>
-        <c:axId val="-1032658912"/>
+        <c:axId val="390347248"/>
+        <c:axId val="390344928"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7848,11 +7870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1032558080"/>
-        <c:axId val="-1032666880"/>
+        <c:axId val="390338704"/>
+        <c:axId val="390341536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1032558080"/>
+        <c:axId val="390338704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7895,7 +7917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1032666880"/>
+        <c:crossAx val="390341536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7903,7 +7925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1032666880"/>
+        <c:axId val="390341536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,12 +8026,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1032558080"/>
+        <c:crossAx val="390338704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1032658912"/>
+        <c:axId val="390344928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8045,12 +8067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1032521552"/>
+        <c:crossAx val="390347248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-1032521552"/>
+        <c:axId val="390347248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8060,7 +8082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1032658912"/>
+        <c:crossAx val="390344928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10525,13 +10547,13 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="0120-b"/>
+      <sheetName val="Sheet0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="500">
-          <cell r="I500">
-            <v>0</v>
+        <row r="601">
+          <cell r="J601">
+            <v>653171.37685502204</v>
           </cell>
         </row>
       </sheetData>
@@ -11559,18 +11581,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP55"/>
+  <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB51" sqref="AB51"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="4"/>
     <col min="3" max="3" width="11.83203125" style="4" customWidth="1"/>
-    <col min="4" max="7" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="15.1640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="4"/>
     <col min="8" max="8" width="13.6640625" style="4" customWidth="1"/>
     <col min="9" max="12" width="10.83203125" style="4"/>
     <col min="13" max="13" width="12.83203125" style="4" customWidth="1"/>
@@ -11586,183 +11610,183 @@
     <col min="29" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="22" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:42" s="20" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="26" t="s">
+      <c r="M1" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA1" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD1" s="22" t="s">
+      <c r="V1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>207</v>
-      </c>
       <c r="G2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>210</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>114</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>220</v>
+        <v>193</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="AL2" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="AO2" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -11836,12 +11860,11 @@
         <f t="shared" ref="Z3:Z34" si="1">B3</f>
         <v>5948602</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="28">
         <f>SUM(AC3:AG3)</f>
         <v>425707</v>
       </c>
       <c r="AB3" s="4">
-        <f>'[1]0120-b'!$I$70</f>
         <v>0</v>
       </c>
       <c r="AC3" s="4">
@@ -11960,7 +11983,7 @@
         <f t="shared" si="1"/>
         <v>5773570</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="28">
         <f t="shared" ref="AA4:AA14" si="12">Z4*M4*AB4/10000</f>
         <v>390486.01022999344</v>
       </c>
@@ -12060,12 +12083,12 @@
         <f t="shared" si="1"/>
         <v>6355461</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="28">
         <f t="shared" si="12"/>
         <v>405078.14236909267</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" ref="AB3:AB49" si="13">SUM(C5:F5,L4)</f>
+        <f t="shared" ref="AB5:AB49" si="13">SUM(C5:F5,L4)</f>
         <v>6.9468027697663617</v>
       </c>
       <c r="AC5" s="4">
@@ -12160,7 +12183,7 @@
         <f t="shared" si="1"/>
         <v>6525779</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AA6" s="28">
         <f t="shared" si="12"/>
         <v>401033.05474413693</v>
       </c>
@@ -12260,7 +12283,7 @@
         <f t="shared" si="1"/>
         <v>5854984</v>
       </c>
-      <c r="AA7" s="30">
+      <c r="AA7" s="28">
         <f t="shared" si="12"/>
         <v>340395.32632305415</v>
       </c>
@@ -12360,7 +12383,7 @@
         <f t="shared" si="1"/>
         <v>5980801</v>
       </c>
-      <c r="AA8" s="30">
+      <c r="AA8" s="28">
         <f t="shared" si="12"/>
         <v>340240.29786658788</v>
       </c>
@@ -12460,7 +12483,7 @@
         <f t="shared" si="1"/>
         <v>6042942</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="28">
         <f t="shared" si="12"/>
         <v>358667.14555622824</v>
       </c>
@@ -12560,7 +12583,7 @@
         <f t="shared" si="1"/>
         <v>6202796</v>
       </c>
-      <c r="AA10" s="30">
+      <c r="AA10" s="28">
         <f t="shared" si="12"/>
         <v>387275.39399033465</v>
       </c>
@@ -12660,7 +12683,7 @@
         <f t="shared" si="1"/>
         <v>6355190</v>
       </c>
-      <c r="AA11" s="30">
+      <c r="AA11" s="28">
         <f t="shared" si="12"/>
         <v>392686.63231618662</v>
       </c>
@@ -12760,7 +12783,7 @@
         <f t="shared" si="1"/>
         <v>7107620</v>
       </c>
-      <c r="AA12" s="30">
+      <c r="AA12" s="28">
         <f t="shared" si="12"/>
         <v>452364.40004383097</v>
       </c>
@@ -12860,7 +12883,7 @@
         <f t="shared" si="1"/>
         <v>7289482</v>
       </c>
-      <c r="AA13" s="30">
+      <c r="AA13" s="28">
         <f t="shared" si="12"/>
         <v>456194.94002542784</v>
       </c>
@@ -12960,7 +12983,7 @@
         <f t="shared" si="1"/>
         <v>7004711</v>
       </c>
-      <c r="AA14" s="30">
+      <c r="AA14" s="28">
         <f t="shared" si="12"/>
         <v>442914.22526577074</v>
       </c>
@@ -13060,8 +13083,8 @@
         <f t="shared" si="1"/>
         <v>6956053</v>
       </c>
-      <c r="AA15" s="30">
-        <f t="shared" ref="AA15:AA49" si="14">Z15*M15*AB15/10000</f>
+      <c r="AA15" s="28">
+        <f t="shared" ref="AA15:AA52" si="14">Z15*M15*AB15/10000</f>
         <v>481203.37869112828</v>
       </c>
       <c r="AB15" s="4">
@@ -13160,7 +13183,7 @@
         <f t="shared" si="1"/>
         <v>6828849</v>
       </c>
-      <c r="AA16" s="30">
+      <c r="AA16" s="28">
         <f t="shared" si="14"/>
         <v>469019.68966881774</v>
       </c>
@@ -13260,7 +13283,7 @@
         <f t="shared" si="1"/>
         <v>6794184</v>
       </c>
-      <c r="AA17" s="30">
+      <c r="AA17" s="28">
         <f t="shared" si="14"/>
         <v>436232.53501558182</v>
       </c>
@@ -13360,7 +13383,7 @@
         <f t="shared" si="1"/>
         <v>6860811</v>
       </c>
-      <c r="AA18" s="30">
+      <c r="AA18" s="28">
         <f t="shared" si="14"/>
         <v>428481.94637242163</v>
       </c>
@@ -13460,7 +13483,7 @@
         <f t="shared" si="1"/>
         <v>7291791</v>
       </c>
-      <c r="AA19" s="30">
+      <c r="AA19" s="28">
         <f t="shared" si="14"/>
         <v>452196.41528563184</v>
       </c>
@@ -13560,7 +13583,7 @@
         <f t="shared" si="1"/>
         <v>7382733</v>
       </c>
-      <c r="AA20" s="30">
+      <c r="AA20" s="28">
         <f t="shared" si="14"/>
         <v>445133.98011712532</v>
       </c>
@@ -13660,7 +13683,7 @@
         <f t="shared" si="1"/>
         <v>6761813</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="28">
         <f t="shared" si="14"/>
         <v>388209.79304600012</v>
       </c>
@@ -13760,7 +13783,7 @@
         <f t="shared" si="1"/>
         <v>7225605</v>
       </c>
-      <c r="AA22" s="30">
+      <c r="AA22" s="28">
         <f t="shared" si="14"/>
         <v>485864.18382091093</v>
       </c>
@@ -13860,7 +13883,7 @@
         <f t="shared" si="1"/>
         <v>7355884</v>
       </c>
-      <c r="AA23" s="30">
+      <c r="AA23" s="28">
         <f t="shared" si="14"/>
         <v>635794.42503090214</v>
       </c>
@@ -13960,7 +13983,7 @@
         <f t="shared" si="1"/>
         <v>7113978</v>
       </c>
-      <c r="AA24" s="30">
+      <c r="AA24" s="28">
         <f t="shared" si="14"/>
         <v>507314.96340370062</v>
       </c>
@@ -14060,7 +14083,7 @@
         <f t="shared" si="1"/>
         <v>7114075</v>
       </c>
-      <c r="AA25" s="30">
+      <c r="AA25" s="28">
         <f t="shared" si="14"/>
         <v>486580.27486908267</v>
       </c>
@@ -14160,7 +14183,7 @@
         <f t="shared" si="1"/>
         <v>8114931</v>
       </c>
-      <c r="AA26" s="30">
+      <c r="AA26" s="28">
         <f t="shared" si="14"/>
         <v>658130.34884182131</v>
       </c>
@@ -14260,7 +14283,7 @@
         <f t="shared" si="1"/>
         <v>8673281</v>
       </c>
-      <c r="AA27" s="30">
+      <c r="AA27" s="28">
         <f t="shared" si="14"/>
         <v>735636.96790306317</v>
       </c>
@@ -14360,7 +14383,7 @@
         <f t="shared" si="1"/>
         <v>7763049</v>
       </c>
-      <c r="AA28" s="30">
+      <c r="AA28" s="28">
         <f t="shared" si="14"/>
         <v>646152.66516193072</v>
       </c>
@@ -14460,7 +14483,7 @@
         <f t="shared" si="1"/>
         <v>7649478</v>
       </c>
-      <c r="AA29" s="30">
+      <c r="AA29" s="28">
         <f t="shared" si="14"/>
         <v>598379.78587003658</v>
       </c>
@@ -14560,7 +14583,7 @@
         <f t="shared" si="1"/>
         <v>7615180</v>
       </c>
-      <c r="AA30" s="30">
+      <c r="AA30" s="28">
         <f t="shared" si="14"/>
         <v>559799.1565622685</v>
       </c>
@@ -14660,7 +14683,7 @@
         <f t="shared" si="1"/>
         <v>7640633</v>
       </c>
-      <c r="AA31" s="30">
+      <c r="AA31" s="28">
         <f t="shared" si="14"/>
         <v>543216.9521687855</v>
       </c>
@@ -14760,7 +14783,7 @@
         <f t="shared" si="1"/>
         <v>7450357</v>
       </c>
-      <c r="AA32" s="30">
+      <c r="AA32" s="28">
         <f t="shared" si="14"/>
         <v>514714.22809120017</v>
       </c>
@@ -14860,7 +14883,7 @@
         <f t="shared" si="1"/>
         <v>7136856</v>
       </c>
-      <c r="AA33" s="30">
+      <c r="AA33" s="28">
         <f t="shared" si="14"/>
         <v>532065.80768935475</v>
       </c>
@@ -14960,7 +14983,7 @@
         <f t="shared" si="1"/>
         <v>6901008</v>
       </c>
-      <c r="AA34" s="30">
+      <c r="AA34" s="28">
         <f t="shared" si="14"/>
         <v>568362.17876881792</v>
       </c>
@@ -15060,7 +15083,7 @@
         <f t="shared" ref="Z35:Z51" si="16">B35</f>
         <v>7368004</v>
       </c>
-      <c r="AA35" s="30">
+      <c r="AA35" s="28">
         <f t="shared" si="14"/>
         <v>503217.46541979973</v>
       </c>
@@ -15160,7 +15183,7 @@
         <f t="shared" si="16"/>
         <v>7133112</v>
       </c>
-      <c r="AA36" s="30">
+      <c r="AA36" s="28">
         <f t="shared" si="14"/>
         <v>460390.11774832715</v>
       </c>
@@ -15260,7 +15283,7 @@
         <f t="shared" si="16"/>
         <v>7327442</v>
       </c>
-      <c r="AA37" s="30">
+      <c r="AA37" s="28">
         <f t="shared" si="14"/>
         <v>479956.93195366097</v>
       </c>
@@ -15360,7 +15383,7 @@
         <f t="shared" si="16"/>
         <v>7789894</v>
       </c>
-      <c r="AA38" s="30">
+      <c r="AA38" s="28">
         <f t="shared" si="14"/>
         <v>584384.74424122949</v>
       </c>
@@ -15460,7 +15483,7 @@
         <f t="shared" si="16"/>
         <v>7445236</v>
       </c>
-      <c r="AA39" s="30">
+      <c r="AA39" s="28">
         <f t="shared" si="14"/>
         <v>547753.42146016541</v>
       </c>
@@ -15560,7 +15583,7 @@
         <f t="shared" si="16"/>
         <v>7988829</v>
       </c>
-      <c r="AA40" s="30">
+      <c r="AA40" s="28">
         <f t="shared" si="14"/>
         <v>661696.61247579183</v>
       </c>
@@ -15660,7 +15683,7 @@
         <f t="shared" si="16"/>
         <v>7546405</v>
       </c>
-      <c r="AA41" s="30">
+      <c r="AA41" s="28">
         <f t="shared" si="14"/>
         <v>570802.55644199485</v>
       </c>
@@ -15760,7 +15783,7 @@
         <f t="shared" si="16"/>
         <v>6848069</v>
       </c>
-      <c r="AA42" s="30">
+      <c r="AA42" s="28">
         <f t="shared" si="14"/>
         <v>496752.21933751629</v>
       </c>
@@ -15860,7 +15883,7 @@
         <f t="shared" si="16"/>
         <v>6909779</v>
       </c>
-      <c r="AA43" s="30">
+      <c r="AA43" s="28">
         <f t="shared" si="14"/>
         <v>534462.73299118096</v>
       </c>
@@ -15960,7 +15983,7 @@
         <f t="shared" si="16"/>
         <v>6850987</v>
       </c>
-      <c r="AA44" s="30">
+      <c r="AA44" s="28">
         <f t="shared" si="14"/>
         <v>600676.10348406143</v>
       </c>
@@ -16060,7 +16083,7 @@
         <f t="shared" si="16"/>
         <v>6646567</v>
       </c>
-      <c r="AA45" s="30">
+      <c r="AA45" s="28">
         <f t="shared" si="14"/>
         <v>592660.95433011185</v>
       </c>
@@ -16160,7 +16183,7 @@
         <f t="shared" si="16"/>
         <v>6147258</v>
       </c>
-      <c r="AA46" s="30">
+      <c r="AA46" s="28">
         <f t="shared" si="14"/>
         <v>551055.43972914061</v>
       </c>
@@ -16260,7 +16283,7 @@
         <f t="shared" si="16"/>
         <v>5991939</v>
       </c>
-      <c r="AA47" s="30">
+      <c r="AA47" s="28">
         <f t="shared" si="14"/>
         <v>547330.46825666784</v>
       </c>
@@ -16360,7 +16383,7 @@
         <f t="shared" si="16"/>
         <v>5876101</v>
       </c>
-      <c r="AA48" s="30">
+      <c r="AA48" s="28">
         <f t="shared" si="14"/>
         <v>565786.31257267215</v>
       </c>
@@ -16460,9 +16483,9 @@
         <f t="shared" si="16"/>
         <v>5464043</v>
       </c>
-      <c r="AA49" s="30">
-        <f t="shared" si="14"/>
-        <v>531137.70973976469</v>
+      <c r="AA49" s="28" t="b">
+        <f>[1]Sheet0!$J$601=[1]Sheet0!$J$601=[1]Sheet0!$HC$251</f>
+        <v>0</v>
       </c>
       <c r="AB49" s="4">
         <f t="shared" si="13"/>
@@ -16560,12 +16583,12 @@
         <f t="shared" si="16"/>
         <v>5448161</v>
       </c>
-      <c r="AA50" s="30">
+      <c r="AA50" s="28">
         <f>Z50*M50*AB50/10000</f>
         <v>539543.48630634136</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" ref="AB50:AB51" si="22">SUM(C50:F50,L49)</f>
+        <f t="shared" ref="AB50" si="22">SUM(C50:F50,L49)</f>
         <v>10.614163017380868</v>
       </c>
       <c r="AC50" s="4">
@@ -16591,7 +16614,7 @@
     </row>
     <row r="51" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51">
         <v>5516036</v>
@@ -16660,8 +16683,8 @@
         <f t="shared" si="16"/>
         <v>5516036</v>
       </c>
-      <c r="AA51" s="30" t="e">
-        <f t="shared" ref="AA51" si="23">Z51*M51*AB51/10000</f>
+      <c r="AA51" s="28" t="e">
+        <f>Z51*M51*AB51/10000</f>
         <v>#NAME?</v>
       </c>
       <c r="AB51" s="4" t="e">
@@ -16691,7 +16714,7 @@
     </row>
     <row r="52" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B52">
         <v>5251786</v>
@@ -16752,63 +16775,83 @@
         <f>A52</f>
         <v>2017-01-19</v>
       </c>
-      <c r="Z52" s="4">
+      <c r="Z52" s="30">
         <f>B52</f>
         <v>5251786</v>
       </c>
-      <c r="AA52" s="30">
-        <f>'[1]0120-b'!$I$500</f>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="4">
+      <c r="AA52" s="28">
+        <f>Z52*M52*AB52/10000</f>
+        <v>653171.37685502204</v>
+      </c>
+      <c r="AB52" s="30">
         <f>SUM(C52:F52,L51)</f>
         <v>13.338684633190971</v>
       </c>
       <c r="AC52" s="4">
-        <f t="shared" ref="AC52" si="24">$B52*$M52*F52/10000</f>
+        <f t="shared" ref="AC52" si="23">$B52*$M52*F52/10000</f>
         <v>236766</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" ref="AD52" si="25">$B52*$M52*D52/10000</f>
+        <f t="shared" ref="AD52" si="24">$B52*$M52*D52/10000</f>
         <v>104446.99999999999</v>
       </c>
       <c r="AE52" s="4">
-        <f t="shared" ref="AE52" si="26">$B52*$M52*E52/10000</f>
+        <f t="shared" ref="AE52" si="25">$B52*$M52*E52/10000</f>
         <v>254787</v>
       </c>
       <c r="AF52" s="4">
-        <f t="shared" ref="AF52" si="27">$B52*$M52*C52/10000</f>
+        <f t="shared" ref="AF52" si="26">$B52*$M52*C52/10000</f>
         <v>56825</v>
       </c>
       <c r="AG52" s="4">
-        <f t="shared" ref="AG52" si="28">B52*M52*L52/10000</f>
+        <f t="shared" ref="AG52" si="27">B52*M52*L52/10000</f>
         <v>1916</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Y53" s="4" t="str">
         <f>A53</f>
         <v>2017-01-20</v>
       </c>
-      <c r="AA53" s="30"/>
+      <c r="AA53" s="28"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA54" s="30"/>
+        <v>224</v>
+      </c>
+      <c r="AA54" s="28"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA55" s="30"/>
+        <v>225</v>
+      </c>
+      <c r="AA55" s="28"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -18738,7 +18781,7 @@
       <sortCondition ref="C1:C65"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18772,7 +18815,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -18781,13 +18824,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -18817,7 +18860,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>16</v>
@@ -18850,7 +18893,7 @@
         <v>0.18703189140235216</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O2" s="8" t="str">
         <f>"【"&amp;A2&amp;"】【"&amp;B2&amp;"】今日订单量 "&amp;F2&amp;" 单，占支付订单量"&amp;ROUND(G2,4)&amp;"%，比前一天"&amp;IF(H2&gt;0,"增加","下降")&amp;ABS(ROUND(H2,4))&amp;"个百分点，"&amp;IF(I2&gt;0,"高于","低于")&amp;"30天内均值"&amp;ABS(ROUND(I2,4))&amp;"个百分点（"&amp;K2&amp;"倍标准差）。"&amp; "30天内均值为 "&amp;ROUND(L2,4)&amp;"%，标准差为 "&amp;ROUND(M2,4)&amp;"%"&amp;CHAR(13)</f>
@@ -18863,10 +18906,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>16</v>
@@ -18899,7 +18942,7 @@
         <v>3.7639557906921917E-2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O3" s="8" t="str">
         <f t="shared" ref="O3:O66" si="0">"【"&amp;A3&amp;"】【"&amp;B3&amp;"】今日订单量 "&amp;F3&amp;" 单，占支付订单量"&amp;ROUND(G3,4)&amp;"%，比前一天"&amp;IF(H3&gt;0,"增加","下降")&amp;ABS(ROUND(H3,4))&amp;"个百分点，"&amp;IF(I3&gt;0,"高于","低于")&amp;"30天内均值"&amp;ABS(ROUND(I3,4))&amp;"个百分点（"&amp;K3&amp;"倍标准差）。"&amp; "30天内均值为 "&amp;ROUND(L3,4)&amp;"%，标准差为 "&amp;ROUND(M3,4)&amp;"%"&amp;CHAR(13)</f>
@@ -18912,10 +18955,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -18948,7 +18991,7 @@
         <v>4.4713449004889303E-5</v>
       </c>
       <c r="N4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -18961,10 +19004,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -18997,7 +19040,7 @@
         <v>2.6890037888121564E-3</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19010,10 +19053,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
@@ -19046,7 +19089,7 @@
         <v>2.7208159248340996E-3</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19059,10 +19102,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -19095,7 +19138,7 @@
         <v>7.5652104583433409E-3</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19108,10 +19151,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -19144,7 +19187,7 @@
         <v>9.0414330046515324E-3</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19157,10 +19200,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -19193,7 +19236,7 @@
         <v>3.7862706927320161E-2</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19206,10 +19249,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -19242,7 +19285,7 @@
         <v>4.7501075201505835E-4</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19255,10 +19298,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -19291,7 +19334,7 @@
         <v>2.257029090707977E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19304,10 +19347,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -19340,7 +19383,7 @@
         <v>2.3851667513829634E-3</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19353,10 +19396,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -19389,7 +19432,7 @@
         <v>7.3478854529604107E-4</v>
       </c>
       <c r="N13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19402,10 +19445,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -19438,7 +19481,7 @@
         <v>1.539739639902514E-3</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19451,10 +19494,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -19487,7 +19530,7 @@
         <v>5.3014874717154693E-2</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19500,10 +19543,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>16</v>
@@ -19536,7 +19579,7 @@
         <v>1.6327916416349255E-2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19549,10 +19592,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -19585,7 +19628,7 @@
         <v>4.1264315175039208E-5</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19598,10 +19641,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
@@ -19634,7 +19677,7 @@
         <v>2.5313591341526538E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19647,10 +19690,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
@@ -19683,7 +19726,7 @@
         <v>7.7574610576546911E-3</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19696,10 +19739,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -19732,7 +19775,7 @@
         <v>6.9374745885075308E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19745,10 +19788,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -19781,7 +19824,7 @@
         <v>2.3065691438384022E-3</v>
       </c>
       <c r="N21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19794,10 +19837,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -19830,7 +19873,7 @@
         <v>3.6236330947237008E-4</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19843,10 +19886,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -19879,7 +19922,7 @@
         <v>1.730556890531959E-2</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19892,10 +19935,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>16</v>
@@ -19928,7 +19971,7 @@
         <v>1.048762197104822E-2</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19941,10 +19984,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -19977,7 +20020,7 @@
         <v>1.803702617297153E-4</v>
       </c>
       <c r="N25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -19990,10 +20033,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -20026,7 +20069,7 @@
         <v>3.7487434430256273E-4</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20039,10 +20082,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>16</v>
@@ -20075,7 +20118,7 @@
         <v>1.014959545384906E-3</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20088,10 +20131,10 @@
         <v>订单取消运单异常</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
@@ -20124,7 +20167,7 @@
         <v>1.813540261082538E-3</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20140,7 +20183,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>14</v>
@@ -20173,7 +20216,7 @@
         <v>6.356613463541801E-3</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20186,10 +20229,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>14</v>
@@ -20222,7 +20265,7 @@
         <v>6.6251740862560823E-4</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20235,10 +20278,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
@@ -20253,7 +20296,7 @@
         <v>8.1685665391008854E-5</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I31">
         <v>5.8049700448540897E-5</v>
@@ -20284,10 +20327,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -20320,7 +20363,7 @@
         <v>5.4609012512004933E-5</v>
       </c>
       <c r="N32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20333,10 +20376,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
@@ -20369,7 +20412,7 @@
         <v>6.3880968800447924E-5</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20382,10 +20425,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>14</v>
@@ -20418,7 +20461,7 @@
         <v>2.583580207429464E-3</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20431,10 +20474,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -20467,7 +20510,7 @@
         <v>7.3999973968416356E-5</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20480,10 +20523,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -20516,7 +20559,7 @@
         <v>1.8516231222989183E-3</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O36" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20529,10 +20572,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
@@ -20565,7 +20608,7 @@
         <v>8.6419175996879931E-4</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O37" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20578,10 +20621,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -20614,7 +20657,7 @@
         <v>5.9010566535800815E-5</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O38" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20627,10 +20670,10 @@
         <v>订单取消运单正常</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>14</v>
@@ -20663,7 +20706,7 @@
         <v>2.0853611208915634E-4</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O39" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20679,7 +20722,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -20712,7 +20755,7 @@
         <v>0.34513627754887138</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O40" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20725,10 +20768,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -20761,7 +20804,7 @@
         <v>8.2315948467760247E-2</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O41" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20774,10 +20817,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -20810,7 +20853,7 @@
         <v>3.418098042830147E-3</v>
       </c>
       <c r="N42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O42" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20823,10 +20866,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -20859,7 +20902,7 @@
         <v>0.17445909897295425</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O43" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20872,10 +20915,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -20908,7 +20951,7 @@
         <v>1.6699326648927044E-2</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O44" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20921,10 +20964,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -20957,7 +21000,7 @@
         <v>4.6630384132584583E-3</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O45" s="8" t="str">
         <f t="shared" si="0"/>
@@ -20970,10 +21013,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -21006,7 +21049,7 @@
         <v>4.3349849402687289E-2</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O46" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21019,10 +21062,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>12</v>
@@ -21055,7 +21098,7 @@
         <v>1.1271845504384296E-2</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O47" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21068,10 +21111,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -21104,7 +21147,7 @@
         <v>2.5049273475547355E-3</v>
       </c>
       <c r="N48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O48" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21117,10 +21160,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
@@ -21153,7 +21196,7 @@
         <v>2.9020111142245486E-3</v>
       </c>
       <c r="N49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O49" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21166,10 +21209,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -21202,7 +21245,7 @@
         <v>3.0740958879085505E-2</v>
       </c>
       <c r="N50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O50" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21215,10 +21258,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -21251,7 +21294,7 @@
         <v>3.1508301181567416E-2</v>
       </c>
       <c r="N51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O51" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21264,10 +21307,10 @@
         <v>订单正常运单异常</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -21300,7 +21343,7 @@
         <v>1.3365148572246004E-4</v>
       </c>
       <c r="N52" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O52" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21316,7 +21359,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>31</v>
@@ -21349,7 +21392,7 @@
         <v>0.61782366186465509</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O53" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21362,10 +21405,10 @@
         <v>订单正常运单超时</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>31</v>
@@ -21398,7 +21441,7 @@
         <v>0.35534358422373291</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O54" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21411,10 +21454,10 @@
         <v>订单正常运单超时</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -21447,7 +21490,7 @@
         <v>2.8570049618823559E-2</v>
       </c>
       <c r="N55" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O55" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21460,10 +21503,10 @@
         <v>订单正常运单超时</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>31</v>
@@ -21496,7 +21539,7 @@
         <v>0.2869181657902537</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O56" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21512,7 +21555,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>18</v>
@@ -21545,7 +21588,7 @@
         <v>0.40802838487958337</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O57" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21558,10 +21601,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
@@ -21594,7 +21637,7 @@
         <v>9.5249371472699906E-2</v>
       </c>
       <c r="N58" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O58" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21607,10 +21650,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>18</v>
@@ -21643,7 +21686,7 @@
         <v>0.25007930224722957</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O59" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21656,10 +21699,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>18</v>
@@ -21692,7 +21735,7 @@
         <v>8.1553573336818022E-2</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O60" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21705,10 +21748,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D61" t="s">
         <v>18</v>
@@ -21741,7 +21784,7 @@
         <v>5.1532827728690216E-2</v>
       </c>
       <c r="N61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O61" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21754,10 +21797,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
@@ -21790,7 +21833,7 @@
         <v>5.9578481443380182E-2</v>
       </c>
       <c r="N62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O62" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21803,10 +21846,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
@@ -21839,7 +21882,7 @@
         <v>2.119379624523552E-2</v>
       </c>
       <c r="N63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O63" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21852,10 +21895,10 @@
         <v>订单取消无运单</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D64" t="s">
         <v>18</v>
@@ -21888,7 +21931,7 @@
         <v>1.8207257346083687E-4</v>
       </c>
       <c r="N64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O64" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21901,13 +21944,13 @@
         <v>总异常订单量</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>42</v>
@@ -21937,7 +21980,7 @@
         <v>1.4544942694723286</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O65" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21950,10 +21993,10 @@
         <v>预定单</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D66" t="s">
         <v>41</v>
@@ -21986,7 +22029,7 @@
         <v>0.36578062529873462</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O66" s="8" t="str">
         <f t="shared" si="0"/>
@@ -21999,16 +22042,16 @@
         <v>创建订单量</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F67">
         <v>5251786</v>
@@ -22035,7 +22078,7 @@
         <v>852235.4150187975</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O67" s="8" t="str">
         <f t="shared" ref="O67:O68" si="1">"【"&amp;A67&amp;"】【"&amp;B67&amp;"】今日订单量 "&amp;F67&amp;" 单，占支付订单量"&amp;ROUND(G67,4)&amp;"%，比前一天"&amp;IF(H67&gt;0,"增加","下降")&amp;ABS(ROUND(H67,4))&amp;"个百分点，"&amp;IF(I67&gt;0,"高于","低于")&amp;"30天内均值"&amp;ABS(ROUND(I67,4))&amp;"个百分点（"&amp;K67&amp;"倍标准差）。"&amp; "30天内均值为 "&amp;ROUND(L67,4)&amp;"%，标准差为 "&amp;ROUND(M67,4)&amp;"%"&amp;CHAR(13)</f>
@@ -22048,10 +22091,10 @@
         <v>支付订单量</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D68" t="s">
         <v>44</v>
@@ -22084,7 +22127,7 @@
         <v>0.91337755480009775</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O68" s="8" t="str">
         <f t="shared" si="1"/>
@@ -22106,7 +22149,7 @@
     <row r="81" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:O68"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22127,46 +22170,46 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -22175,7 +22218,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="9"/>
     </row>
@@ -22184,7 +22227,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="9"/>
     </row>
@@ -22193,20 +22236,20 @@
         <v>44</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>274</v>
+      <c r="A9" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/0120dailyreport.xlsx
+++ b/data/0120dailyreport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="14060" windowWidth="24220" windowHeight="14520"/>
+    <workbookView xWindow="10120" yWindow="1900" windowWidth="24220" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="6" r:id="rId1"/>
@@ -2137,8 +2137,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317500480"/>
-        <c:axId val="317619504"/>
+        <c:axId val="793435328"/>
+        <c:axId val="793177088"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4222,11 +4222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317384368"/>
-        <c:axId val="317615872"/>
+        <c:axId val="895247376"/>
+        <c:axId val="895249424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317384368"/>
+        <c:axId val="895247376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,7 +4269,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317615872"/>
+        <c:crossAx val="895249424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4277,7 +4277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317615872"/>
+        <c:axId val="895249424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,12 +4419,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317384368"/>
+        <c:crossAx val="895247376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317619504"/>
+        <c:axId val="793177088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4461,12 +4461,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317500480"/>
+        <c:crossAx val="793435328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="317500480"/>
+        <c:axId val="793435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,7 +4476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317619504"/>
+        <c:crossAx val="793177088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5011,8 +5011,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390290016"/>
-        <c:axId val="390287696"/>
+        <c:axId val="895292864"/>
+        <c:axId val="895290544"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6407,11 +6407,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390281984"/>
-        <c:axId val="390284304"/>
+        <c:axId val="895284832"/>
+        <c:axId val="895287152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390281984"/>
+        <c:axId val="895284832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6454,7 +6454,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390284304"/>
+        <c:crossAx val="895287152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6462,7 +6462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390284304"/>
+        <c:axId val="895287152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6569,12 +6569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390281984"/>
+        <c:crossAx val="895284832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390287696"/>
+        <c:axId val="895290544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6611,12 +6611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390290016"/>
+        <c:crossAx val="895292864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390290016"/>
+        <c:axId val="895292864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6626,7 +6626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390287696"/>
+        <c:crossAx val="895290544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7507,8 +7507,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390347248"/>
-        <c:axId val="390344928"/>
+        <c:axId val="895340448"/>
+        <c:axId val="895338128"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7870,11 +7870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="390338704"/>
-        <c:axId val="390341536"/>
+        <c:axId val="895331904"/>
+        <c:axId val="895334736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="390338704"/>
+        <c:axId val="895331904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7917,7 +7917,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390341536"/>
+        <c:crossAx val="895334736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7925,7 +7925,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390341536"/>
+        <c:axId val="895334736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8026,12 +8026,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390338704"/>
+        <c:crossAx val="895331904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390344928"/>
+        <c:axId val="895338128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8067,12 +8067,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390347248"/>
+        <c:crossAx val="895340448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="390347248"/>
+        <c:axId val="895340448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8082,7 +8082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390344928"/>
+        <c:crossAx val="895338128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11583,9 +11583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13084,7 +13084,7 @@
         <v>6956053</v>
       </c>
       <c r="AA15" s="28">
-        <f t="shared" ref="AA15:AA52" si="14">Z15*M15*AB15/10000</f>
+        <f t="shared" ref="AA15:AA48" si="14">Z15*M15*AB15/10000</f>
         <v>481203.37869112828</v>
       </c>
       <c r="AB15" s="4">
